--- a/biology/Zoologie/Susan_Butcher/Susan_Butcher.xlsx
+++ b/biology/Zoologie/Susan_Butcher/Susan_Butcher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Susan Howlet Butcher, née le 26 décembre 1954 à Cambridge (Massachusetts) et décédée le 5 août 2006, est une musher américaine connue pour ses participations à l'Iditarod, une course de chiens de traîneau de 1 600 km en Alaska en 1986. Elle a été la seconde femme[N 1] à avoir remporté la course, ainsi que la deuxième personne à remporter quatre fois l'Iditarod et la première à remporter la course quatre fois en cinq ans. L'Alaska a déclaré un jour commémoratif en son honneur, le Susan Butcher Day.
 </t>
